--- a/data-raw/national_detail.xlsx
+++ b/data-raw/national_detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Robinson/Afenet-projects/afenet-uganda/malariaRA/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07235A4F-7D03-F040-AA3C-B1626D475133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B447E5D5-98EC-224B-B3A5-0529651333E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" xr2:uid="{34179EBF-EA7A-454E-A815-C1EFFB15E6B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{34179EBF-EA7A-454E-A815-C1EFFB15E6B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
   <si>
     <t>9-7m</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Pillar</t>
+  </si>
+  <si>
+    <t>12-10m</t>
   </si>
 </sst>
 </file>
@@ -526,407 +529,510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BDAACD-478D-784A-9407-44AC4BB3E96E}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C28" sqref="C28:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.83203125" customWidth="1"/>
     <col min="2" max="2" width="54.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
         <v>46</v>
       </c>
     </row>
